--- a/mapping_schemes/north/TUN_IND.xlsx
+++ b/mapping_schemes/north/TUN_IND.xlsx
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mining and quarrying</t>
+          <t>All other industry</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3300</v>
+        <v>220</v>
       </c>
       <c r="D2" t="n">
-        <v>436</v>
+        <v>276.7250814332247</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -2940,14 +2940,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport; storage and communication</t>
+          <t>Warehouses and storage</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3300</v>
+        <v>220</v>
       </c>
       <c r="D3" t="n">
-        <v>337</v>
+        <v>213.8907166123778</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -2964,14 +2964,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Manufacturing and light industry</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3300</v>
+        <v>220</v>
       </c>
       <c r="D4" t="n">
-        <v>405</v>
+        <v>257.049674267101</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -2988,14 +2988,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mining and quarrying</t>
+          <t>All other industry</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3300</v>
+        <v>480</v>
       </c>
       <c r="D5" t="n">
-        <v>436</v>
+        <v>276.7250814332247</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3012,14 +3012,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transport; storage and communication</t>
+          <t>Warehouses and storage</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3300</v>
+        <v>480</v>
       </c>
       <c r="D6" t="n">
-        <v>337</v>
+        <v>213.8907166123778</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3036,14 +3036,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Manufacturing and light industry</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3300</v>
+        <v>480</v>
       </c>
       <c r="D7" t="n">
-        <v>405</v>
+        <v>257.049674267101</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
